--- a/triba27_ALL_injection_rates_uniform_random_m5out_stats.xlsx
+++ b/triba27_ALL_injection_rates_uniform_random_m5out_stats.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\soliman\m5out_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D027A6-AF6B-40CA-94A3-D4617488B312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F9EF7-6BDE-469B-9168-A45BCDD1BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -62,7 +62,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,14 +98,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +425,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +514,10 @@
       <c r="K2">
         <v>1304</v>
       </c>
+      <c r="L2" s="1">
+        <f>K2/J2</f>
+        <v>0.99770466717674067</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -534,6 +553,10 @@
       <c r="K3">
         <v>2694</v>
       </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L66" si="0">K3/J3</f>
+        <v>0.99777777777777776</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -569,6 +592,10 @@
       <c r="K4">
         <v>4028</v>
       </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99900793650793651</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -604,6 +631,10 @@
       <c r="K5">
         <v>5363</v>
       </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99795310755489397</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -639,6 +670,10 @@
       <c r="K6">
         <v>6746</v>
       </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99778139328501703</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -674,6 +709,10 @@
       <c r="K7">
         <v>8077</v>
       </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9983930778739184</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -709,6 +748,10 @@
       <c r="K8">
         <v>9417</v>
       </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99788068242026062</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -744,6 +787,10 @@
       <c r="K9">
         <v>10747</v>
       </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99804977711738485</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -779,6 +826,10 @@
       <c r="K10">
         <v>12078</v>
       </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99743992072012555</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -814,6 +865,10 @@
       <c r="K11">
         <v>13251</v>
       </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9975158084914183</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -849,6 +904,10 @@
       <c r="K12">
         <v>14158</v>
       </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99732318963088196</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -884,6 +943,10 @@
       <c r="K13">
         <v>15003</v>
       </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99734095592634453</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -919,6 +982,10 @@
       <c r="K14">
         <v>16191</v>
       </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99685999261174729</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -954,6 +1021,10 @@
       <c r="K15">
         <v>17095</v>
       </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99696739954510993</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -989,8 +1060,12 @@
       <c r="K16">
         <v>18068</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99685517241379307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.16</v>
       </c>
@@ -1024,8 +1099,12 @@
       <c r="K17">
         <v>18950</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9967913313344906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.17</v>
       </c>
@@ -1059,8 +1138,12 @@
       <c r="K18">
         <v>20001</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99705882352941178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.18</v>
       </c>
@@ -1094,8 +1177,12 @@
       <c r="K19">
         <v>20890</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99742169595110775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.19</v>
       </c>
@@ -1129,8 +1216,12 @@
       <c r="K20">
         <v>21850</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99758024014975122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -1164,8 +1255,12 @@
       <c r="K21">
         <v>22792</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99733076620137395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.21</v>
       </c>
@@ -1199,8 +1294,12 @@
       <c r="K22">
         <v>23937</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99691807921369369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.22</v>
       </c>
@@ -1234,8 +1333,12 @@
       <c r="K23">
         <v>24581</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99732218931310102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.23</v>
       </c>
@@ -1269,8 +1372,12 @@
       <c r="K24">
         <v>25668</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99685424676686474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.24</v>
       </c>
@@ -1304,8 +1411,12 @@
       <c r="K25">
         <v>26374</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99618508026440034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -1339,8 +1450,12 @@
       <c r="K26">
         <v>26749</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99538570312209285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.26</v>
       </c>
@@ -1374,8 +1489,12 @@
       <c r="K27">
         <v>26717</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99549146732245319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.27</v>
       </c>
@@ -1409,8 +1528,12 @@
       <c r="K28">
         <v>26743</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99523650031632616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.28000000000000003</v>
       </c>
@@ -1444,8 +1567,12 @@
       <c r="K29">
         <v>27205</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99546269530535325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.28999999999999998</v>
       </c>
@@ -1479,8 +1606,12 @@
       <c r="K30">
         <v>27083</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9953691793156676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.3</v>
       </c>
@@ -1514,8 +1645,12 @@
       <c r="K31">
         <v>27638</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99567692196844149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.31</v>
       </c>
@@ -1549,8 +1684,12 @@
       <c r="K32">
         <v>27416</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99517223855675341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.32</v>
       </c>
@@ -1584,8 +1723,12 @@
       <c r="K33">
         <v>27760</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99566012696818618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.33</v>
       </c>
@@ -1619,8 +1762,12 @@
       <c r="K34">
         <v>27911</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99557695737471019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.34</v>
       </c>
@@ -1654,8 +1801,12 @@
       <c r="K35">
         <v>27999</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99477723299936049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.35</v>
       </c>
@@ -1689,8 +1840,12 @@
       <c r="K36">
         <v>28158</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99529885829415721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.36</v>
       </c>
@@ -1724,8 +1879,12 @@
       <c r="K37">
         <v>28726</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99563288506862613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.37</v>
       </c>
@@ -1759,8 +1918,12 @@
       <c r="K38">
         <v>28514</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9950446677833612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.38</v>
       </c>
@@ -1794,8 +1957,12 @@
       <c r="K39">
         <v>28851</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99561736489750841</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.39</v>
       </c>
@@ -1829,8 +1996,12 @@
       <c r="K40">
         <v>29149</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99566197567973769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.4</v>
       </c>
@@ -1864,8 +2035,12 @@
       <c r="K41">
         <v>29049</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9954423959975327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.41</v>
       </c>
@@ -1899,8 +2074,12 @@
       <c r="K42">
         <v>29308</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9954486787582365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.42</v>
       </c>
@@ -1934,8 +2113,12 @@
       <c r="K43">
         <v>29709</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9955765557454509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.43</v>
       </c>
@@ -1969,8 +2152,12 @@
       <c r="K44">
         <v>29798</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99605562240941303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.44</v>
       </c>
@@ -2004,8 +2191,12 @@
       <c r="K45">
         <v>30028</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99572238617899655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.45</v>
       </c>
@@ -2039,8 +2230,12 @@
       <c r="K46">
         <v>30172</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99570985413504054</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.46</v>
       </c>
@@ -2074,8 +2269,12 @@
       <c r="K47">
         <v>30707</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99539693345003077</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.47</v>
       </c>
@@ -2109,8 +2308,12 @@
       <c r="K48">
         <v>31091</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99551727450289773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.48</v>
       </c>
@@ -2144,8 +2347,12 @@
       <c r="K49">
         <v>31228</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99506102029761334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.49</v>
       </c>
@@ -2179,8 +2386,12 @@
       <c r="K50">
         <v>31257</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99544585987261147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.5</v>
       </c>
@@ -2214,8 +2425,12 @@
       <c r="K51">
         <v>31454</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99569484013928455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.51</v>
       </c>
@@ -2249,8 +2464,12 @@
       <c r="K52">
         <v>31303</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99538921394047319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.52</v>
       </c>
@@ -2284,8 +2503,12 @@
       <c r="K53">
         <v>31909</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9959735314314252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.53</v>
       </c>
@@ -2319,8 +2542,12 @@
       <c r="K54">
         <v>32116</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99538199287153262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.54</v>
       </c>
@@ -2354,8 +2581,12 @@
       <c r="K55">
         <v>31914</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.995787700084246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.55000000000000004</v>
       </c>
@@ -2389,8 +2620,12 @@
       <c r="K56">
         <v>31987</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99582827433766075</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.56000000000000005</v>
       </c>
@@ -2424,8 +2659,12 @@
       <c r="K57">
         <v>32344</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99590479416202238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.56999999999999995</v>
       </c>
@@ -2459,8 +2698,12 @@
       <c r="K58">
         <v>32841</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99578532443905399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.57999999999999996</v>
       </c>
@@ -2494,8 +2737,12 @@
       <c r="K59">
         <v>32772</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99571597848874305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.59</v>
       </c>
@@ -2529,8 +2776,12 @@
       <c r="K60">
         <v>33322</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99599473935915828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.6</v>
       </c>
@@ -2564,8 +2815,12 @@
       <c r="K61">
         <v>33099</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99560836215972326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.61</v>
       </c>
@@ -2599,8 +2854,12 @@
       <c r="K62">
         <v>33749</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9955163564496623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.62</v>
       </c>
@@ -2634,8 +2893,12 @@
       <c r="K63">
         <v>33552</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99587426909263599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.63</v>
       </c>
@@ -2669,8 +2932,12 @@
       <c r="K64">
         <v>33517</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99586997860708348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.64</v>
       </c>
@@ -2704,8 +2971,12 @@
       <c r="K65">
         <v>34016</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99595947766001058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.65</v>
       </c>
@@ -2739,8 +3010,12 @@
       <c r="K66">
         <v>34137</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99577037512397182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.66</v>
       </c>
@@ -2774,8 +3049,12 @@
       <c r="K67">
         <v>34209</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="1">
+        <f t="shared" ref="L67:L101" si="1">K67/J67</f>
+        <v>0.99583721471821141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.67</v>
       </c>
@@ -2809,8 +3088,12 @@
       <c r="K68">
         <v>34591</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99559636196177759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.68</v>
       </c>
@@ -2844,8 +3127,12 @@
       <c r="K69">
         <v>34418</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9954303563165201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.69</v>
       </c>
@@ -2879,8 +3166,12 @@
       <c r="K70">
         <v>34929</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99575232339358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.7</v>
       </c>
@@ -2914,8 +3205,12 @@
       <c r="K71">
         <v>34815</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99559609940232774</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.71</v>
       </c>
@@ -2949,8 +3244,12 @@
       <c r="K72">
         <v>35209</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99578596074438597</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.72</v>
       </c>
@@ -2984,8 +3283,12 @@
       <c r="K73">
         <v>35639</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99503029287768374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.73</v>
       </c>
@@ -3019,8 +3322,12 @@
       <c r="K74">
         <v>35303</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99571287547595544</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.74</v>
       </c>
@@ -3054,8 +3361,12 @@
       <c r="K75">
         <v>35747</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99598785210777074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.75</v>
       </c>
@@ -3089,8 +3400,12 @@
       <c r="K76">
         <v>35752</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99607165742623915</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0.76</v>
       </c>
@@ -3124,8 +3439,12 @@
       <c r="K77">
         <v>36196</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99576341127922974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.77</v>
       </c>
@@ -3159,8 +3478,12 @@
       <c r="K78">
         <v>36186</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99578964748617194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0.78</v>
       </c>
@@ -3194,8 +3517,12 @@
       <c r="K79">
         <v>36394</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9962224898718931</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0.79</v>
       </c>
@@ -3229,8 +3556,12 @@
       <c r="K80">
         <v>36516</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99604484329396359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.8</v>
       </c>
@@ -3264,8 +3595,12 @@
       <c r="K81">
         <v>36507</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99623413835448216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.81</v>
       </c>
@@ -3299,8 +3634,12 @@
       <c r="K82">
         <v>36538</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9961286804798255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.82</v>
       </c>
@@ -3334,8 +3673,12 @@
       <c r="K83">
         <v>36859</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99565099945975144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.83</v>
       </c>
@@ -3369,8 +3712,12 @@
       <c r="K84">
         <v>36653</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99576190605558423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.84</v>
       </c>
@@ -3404,8 +3751,12 @@
       <c r="K85">
         <v>37114</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99594794042667378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.85</v>
       </c>
@@ -3439,8 +3790,12 @@
       <c r="K86">
         <v>37336</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99605164870344676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.86</v>
       </c>
@@ -3474,8 +3829,12 @@
       <c r="K87">
         <v>37501</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.995592959354342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.87</v>
       </c>
@@ -3509,8 +3868,12 @@
       <c r="K88">
         <v>37493</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99572422584585962</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.88</v>
       </c>
@@ -3544,8 +3907,12 @@
       <c r="K89">
         <v>38112</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99628796988550217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.89</v>
       </c>
@@ -3579,8 +3946,12 @@
       <c r="K90">
         <v>38061</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99597016878189193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.9</v>
       </c>
@@ -3614,8 +3985,12 @@
       <c r="K91">
         <v>38290</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99622739690386364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.91</v>
       </c>
@@ -3649,8 +4024,12 @@
       <c r="K92">
         <v>38219</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99577916156431567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.92</v>
       </c>
@@ -3684,8 +4063,12 @@
       <c r="K93">
         <v>38237</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99588488084385984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.93</v>
       </c>
@@ -3719,8 +4102,12 @@
       <c r="K94">
         <v>38566</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99602272727272723</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.94</v>
       </c>
@@ -3754,8 +4141,12 @@
       <c r="K95">
         <v>38624</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99587458745874591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.95</v>
       </c>
@@ -3789,8 +4180,12 @@
       <c r="K96">
         <v>39094</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99589861164182902</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.96</v>
       </c>
@@ -3824,8 +4219,12 @@
       <c r="K97">
         <v>38765</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99606865717662774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.97</v>
       </c>
@@ -3859,8 +4258,12 @@
       <c r="K98">
         <v>38891</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99608134412457738</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.98</v>
       </c>
@@ -3894,8 +4297,12 @@
       <c r="K99">
         <v>39342</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99594957217356084</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.99</v>
       </c>
@@ -3929,8 +4336,12 @@
       <c r="K100">
         <v>39590</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99567426185805541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3963,6 +4374,10 @@
       </c>
       <c r="K101">
         <v>39847</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99590112719002277</v>
       </c>
     </row>
   </sheetData>
